--- a/data/trans_dic/P59A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0372254296546345</v>
+        <v>0.03873548405500919</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05532812100301226</v>
+        <v>0.05538642457949602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04218296578590913</v>
+        <v>0.04390438914637236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02482850647773334</v>
+        <v>0.02668532709049226</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0723429376760206</v>
+        <v>0.07054567154325117</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08148467244997631</v>
+        <v>0.08324348117876888</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1027607046858015</v>
+        <v>0.104840707580278</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04375963549875476</v>
+        <v>0.04278890213897242</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0624999870459472</v>
+        <v>0.0624851283048283</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07777792029077182</v>
+        <v>0.07686345388176526</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07839834113196861</v>
+        <v>0.08021084435050095</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04016743075920714</v>
+        <v>0.0427681755909006</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08360451020308775</v>
+        <v>0.08414233193616796</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1063319399478396</v>
+        <v>0.1086204430038283</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09268730895687353</v>
+        <v>0.09623372720348543</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1066047671836874</v>
+        <v>0.1034532575374662</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1320077448361935</v>
+        <v>0.1306468883699791</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1513632575758788</v>
+        <v>0.1491939878098516</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.174906329887893</v>
+        <v>0.1742304087713073</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1180899961998584</v>
+        <v>0.1238724894319835</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09843778950339777</v>
+        <v>0.09874898711346876</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1171734446088489</v>
+        <v>0.1191108173130001</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1208389752287773</v>
+        <v>0.1226008548037473</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09319121959602973</v>
+        <v>0.09431107814087376</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2035302260508302</v>
+        <v>0.2033663570059958</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1881006053774678</v>
+        <v>0.1915814446078545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2818867823654673</v>
+        <v>0.2805280824002677</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2264858798445672</v>
+        <v>0.2301958018581619</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2252233503818428</v>
+        <v>0.2245448827731619</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2482032846119104</v>
+        <v>0.2505775949103463</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2615694363442654</v>
+        <v>0.2585240946253372</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.251580805759142</v>
+        <v>0.255009700332019</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2244332004910411</v>
+        <v>0.2241283945179249</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2273418724260259</v>
+        <v>0.2268390123125799</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2829797944961518</v>
+        <v>0.2825090692176737</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2528936586981997</v>
+        <v>0.255284030219069</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2844435197006938</v>
+        <v>0.2877298160290039</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2700575605822946</v>
+        <v>0.2724735376780812</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3785080017032521</v>
+        <v>0.3767816539947633</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3513659994220162</v>
+        <v>0.3553050717525316</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3369218231177673</v>
+        <v>0.3396022799916935</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.366182920108578</v>
+        <v>0.3660602650262545</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3683379878427978</v>
+        <v>0.3588269455777782</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3679452135980696</v>
+        <v>0.3653860047957871</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2915381614366286</v>
+        <v>0.2902485613564252</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2940529852958613</v>
+        <v>0.289840759470783</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.352939079208365</v>
+        <v>0.3548440207615898</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3391605523789782</v>
+        <v>0.3432808528570105</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.248375174660315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3028167385712544</v>
+        <v>0.3028167385712543</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1245042730685662</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0685023613143171</v>
+        <v>0.06748565510390728</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1580046369829171</v>
+        <v>0.1555262446628519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1899976209896924</v>
+        <v>0.1957515800952489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2434784356683173</v>
+        <v>0.2396539693254104</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07603032001837309</v>
+        <v>0.07577202252247085</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2290766224578456</v>
+        <v>0.2413761809428279</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2032647820100832</v>
+        <v>0.2018353524910573</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2795911919284854</v>
+        <v>0.276929954875875</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08595634841225992</v>
+        <v>0.08421888304129642</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2139680401506063</v>
+        <v>0.2116292416096411</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2131211699064492</v>
+        <v>0.2159675354450127</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.271231013970786</v>
+        <v>0.2764617384233268</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1827546337243254</v>
+        <v>0.178878577845788</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.301108334694266</v>
+        <v>0.2990246926566715</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3115748223898797</v>
+        <v>0.3162228252492928</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3699165379610519</v>
+        <v>0.3657356146807671</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1963306414263846</v>
+        <v>0.2014413474341465</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4105831287171596</v>
+        <v>0.4043850890441332</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3370891839379094</v>
+        <v>0.328914967222627</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3869782948249746</v>
+        <v>0.3826014887957978</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1669575363533763</v>
+        <v>0.1623952154182036</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3305750614370443</v>
+        <v>0.3250087753193457</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3040286795017448</v>
+        <v>0.3030927899376276</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.359566386020985</v>
+        <v>0.3623965420975053</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1151923500400389</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1456131693574518</v>
+        <v>0.1456131693574519</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1090045741534719</v>
+        <v>0.1102057502998692</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1190689888967023</v>
+        <v>0.1242329769582927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08225551659187233</v>
+        <v>0.08635688628293377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08533225752662259</v>
+        <v>0.08204714489067677</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0407742293139012</v>
+        <v>0.0384226528483722</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06072313310216607</v>
+        <v>0.05838586170993574</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1387426965939873</v>
+        <v>0.1368761316103856</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06047469519658229</v>
+        <v>0.05907521308438997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08848949891561998</v>
+        <v>0.09376772630939864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08346631929663481</v>
+        <v>0.08521172884939907</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1154358888828895</v>
+        <v>0.1177520184008197</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2945629781851011</v>
+        <v>0.2941150824386234</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2740158487665924</v>
+        <v>0.2785886748534029</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1883148915659525</v>
+        <v>0.1841295573135648</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1641807808791122</v>
+        <v>0.1626636288420932</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06568450150902384</v>
+        <v>0.06866066878949571</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1540374221697313</v>
+        <v>0.1528040046089668</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1647903493446815</v>
+        <v>0.1612907330331977</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2206697674914961</v>
+        <v>0.2266310964360949</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.154633889569534</v>
+        <v>0.1566059294155485</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1855926359211603</v>
+        <v>0.1924858828004441</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1564427020659544</v>
+        <v>0.1534919374099613</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1736790225158891</v>
+        <v>0.1780069100524611</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06457807684737461</v>
+        <v>0.05375308359705032</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05035169752438696</v>
+        <v>0.04954636893948141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09722761432874466</v>
+        <v>0.09443682168893051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08345931788601627</v>
+        <v>0.07969954731387897</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01037592550772095</v>
+        <v>0.01040051579601713</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05545185690130389</v>
+        <v>0.05524451027151173</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01984753060788088</v>
+        <v>0.02066512183167603</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05298865985238833</v>
+        <v>0.05127564937802121</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03738633946554391</v>
+        <v>0.03579306772289868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06890085765325925</v>
+        <v>0.07073604124851264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06173886241959118</v>
+        <v>0.06272738599371737</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07601410742011783</v>
+        <v>0.07514884243985412</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2501959640606969</v>
+        <v>0.2666043257522702</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2420529581497809</v>
+        <v>0.2467508223529606</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2589597041677865</v>
+        <v>0.2495700793638518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1783575318260928</v>
+        <v>0.1812547774374359</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08670809563152036</v>
+        <v>0.08697211063131531</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1985637474866009</v>
+        <v>0.1968500604017544</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09689751248732714</v>
+        <v>0.09846338247115596</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1107860195372131</v>
+        <v>0.1113203741517062</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1279887554753339</v>
+        <v>0.1196185608231342</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1764635739680423</v>
+        <v>0.1776837358907025</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.139343294082172</v>
+        <v>0.1422088736962693</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.129763636993421</v>
+        <v>0.1295477012151765</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.02192004520045291</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.04934786777891075</v>
+        <v>0.04934786777891074</v>
       </c>
     </row>
     <row r="20">
@@ -1391,33 +1391,33 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01586660296464766</v>
+        <v>0.01631488012991494</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02401810553830988</v>
+        <v>0.0249857865256378</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05359783594605893</v>
+        <v>0.05245770910481447</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.006621246929420189</v>
+        <v>0.006683503728207722</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.01141392609098189</v>
+        <v>0.01118683859008295</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01370788388885044</v>
+        <v>0.009990100541499396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.008445940447409516</v>
+        <v>0.008578962689469624</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03236157173035079</v>
+        <v>0.0317575840154056</v>
       </c>
     </row>
     <row r="21">
@@ -1428,36 +1428,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1040757528493951</v>
+        <v>0.1158677856102576</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1308091356078742</v>
+        <v>0.136478654298206</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1388633340387014</v>
+        <v>0.1326636122520452</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1449642199064758</v>
+        <v>0.1415053348276349</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.07109883912145301</v>
+        <v>0.07924345467337916</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.04518609925213597</v>
+        <v>0.04417074840564663</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03244583347391612</v>
+        <v>0.02524678422702862</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06989559775898055</v>
+        <v>0.07311885486740012</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04794902323977344</v>
+        <v>0.05259574783940887</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07272456561431087</v>
+        <v>0.072245052628494</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.02396559674212303</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06866421778831956</v>
+        <v>0.06866421778831955</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0.01274010640431721</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.02262610768879226</v>
+        <v>0.02262610768879225</v>
       </c>
     </row>
     <row r="23">
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03474392873583312</v>
+        <v>0.03533260108238818</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.00288410615805662</v>
+        <v>0.002989681429320062</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.002485223221574051</v>
+        <v>0.002471458609895341</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01248532707350356</v>
+        <v>0.01352867508973724</v>
       </c>
     </row>
     <row r="24">
@@ -1556,36 +1556,36 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08792841398274447</v>
+        <v>0.08668275333920351</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.08887813749780528</v>
+        <v>0.07617908639434638</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1260329206312658</v>
+        <v>0.1218243193438317</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.03024442996734877</v>
+        <v>0.03374065302715035</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03640050131361521</v>
+        <v>0.04370716276367918</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01788358243659317</v>
+        <v>0.01929189681023221</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01989015328983958</v>
+        <v>0.0224814115658979</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02668861440426522</v>
+        <v>0.02020478714747238</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03735867663656245</v>
+        <v>0.03819910770066549</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03740862264299356</v>
+        <v>0.0366492967154215</v>
       </c>
     </row>
     <row r="25">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1194146847497842</v>
+        <v>0.1192883250571037</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1340211504308723</v>
+        <v>0.1348668559932951</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1539609280528983</v>
+        <v>0.1556537174161889</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1418574240684282</v>
+        <v>0.143078393107544</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.08587015906277999</v>
+        <v>0.0872650148974607</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1234153508396352</v>
+        <v>0.1234615688353393</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1253288917674998</v>
+        <v>0.1236741914364244</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1216190966698882</v>
+        <v>0.1229857601210919</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1069383259986586</v>
+        <v>0.1060700874764048</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1342196862495614</v>
+        <v>0.133295024894924</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1440621099657039</v>
+        <v>0.1440496062482402</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1380100807399491</v>
+        <v>0.1373586234160603</v>
       </c>
     </row>
     <row r="27">
@@ -1688,40 +1688,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1576245902527514</v>
+        <v>0.1593876512377565</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1742724592027449</v>
+        <v>0.1755975000669664</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1959440889974912</v>
+        <v>0.1976241441750715</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1857296586692203</v>
+        <v>0.1862788582399737</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1194734612322002</v>
+        <v>0.122054940217543</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1616082821397263</v>
+        <v>0.1632137723156067</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.158465056543249</v>
+        <v>0.15856219000454</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.153926723652598</v>
+        <v>0.1547100820222892</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.131469001982865</v>
+        <v>0.1329254811615362</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1612325150463496</v>
+        <v>0.1619901552269761</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1714893317782281</v>
+        <v>0.171877021074582</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.165514468450771</v>
+        <v>0.1634603102612082</v>
       </c>
     </row>
     <row r="28">
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17214</v>
+        <v>17912</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23644</v>
+        <v>23669</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16702</v>
+        <v>17384</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10094</v>
+        <v>10849</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>31343</v>
+        <v>30564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>31251</v>
+        <v>31926</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>36761</v>
+        <v>37505</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15256</v>
+        <v>14917</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>55980</v>
+        <v>55967</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>63067</v>
+        <v>62326</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>59087</v>
+        <v>60453</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>30333</v>
+        <v>32297</v>
       </c>
     </row>
     <row r="7">
@@ -2039,40 +2039,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>38661</v>
+        <v>38910</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45440</v>
+        <v>46418</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36699</v>
+        <v>38103</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>43339</v>
+        <v>42058</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>57193</v>
+        <v>56604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>58052</v>
+        <v>57220</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>62570</v>
+        <v>62328</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41169</v>
+        <v>43185</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>88170</v>
+        <v>88448</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>95012</v>
+        <v>96583</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>91074</v>
+        <v>92402</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>70375</v>
+        <v>71220</v>
       </c>
     </row>
     <row r="8">
@@ -2175,40 +2175,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>89966</v>
+        <v>89894</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>85931</v>
+        <v>87521</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>108824</v>
+        <v>108299</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>86013</v>
+        <v>87421</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>62828</v>
+        <v>62639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>69369</v>
+        <v>70032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>83092</v>
+        <v>82125</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>79246</v>
+        <v>80326</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>161814</v>
+        <v>161594</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>167396</v>
+        <v>167026</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>199139</v>
+        <v>198808</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>175701</v>
+        <v>177361</v>
       </c>
     </row>
     <row r="11">
@@ -2219,40 +2219,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>125732</v>
+        <v>127185</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>123372</v>
+        <v>124475</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>146125</v>
+        <v>145458</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>133438</v>
+        <v>134934</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>93987</v>
+        <v>94735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>102342</v>
+        <v>102308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>117009</v>
+        <v>113987</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>115900</v>
+        <v>115094</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>210196</v>
+        <v>209266</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>216517</v>
+        <v>213415</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>248371</v>
+        <v>249712</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>235636</v>
+        <v>238498</v>
       </c>
     </row>
     <row r="12">
@@ -2355,40 +2355,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9467</v>
+        <v>9326</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25943</v>
+        <v>25536</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>42069</v>
+        <v>43343</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>61214</v>
+        <v>60253</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9629</v>
+        <v>9596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32615</v>
+        <v>34366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37202</v>
+        <v>36940</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>60322</v>
+        <v>59748</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22765</v>
+        <v>22305</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>65595</v>
+        <v>64878</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>86195</v>
+        <v>87346</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>126710</v>
+        <v>129154</v>
       </c>
     </row>
     <row r="15">
@@ -2399,40 +2399,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25257</v>
+        <v>24721</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>49439</v>
+        <v>49097</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68989</v>
+        <v>70018</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>93003</v>
+        <v>91951</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24864</v>
+        <v>25511</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>58457</v>
+        <v>57575</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61694</v>
+        <v>60198</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>83491</v>
+        <v>82547</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>44217</v>
+        <v>43009</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>101343</v>
+        <v>99636</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>122961</v>
+        <v>122583</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>167977</v>
+        <v>169299</v>
       </c>
     </row>
     <row r="16">
@@ -2535,40 +2535,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9793</v>
+        <v>9901</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16643</v>
+        <v>17364</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15205</v>
+        <v>15963</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23026</v>
+        <v>22140</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5368</v>
+        <v>5058</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10558</v>
+        <v>10152</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30803</v>
+        <v>30389</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11659</v>
+        <v>11389</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>24018</v>
+        <v>25450</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>29941</v>
+        <v>30567</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>56778</v>
+        <v>57918</v>
       </c>
     </row>
     <row r="19">
@@ -2579,40 +2579,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26465</v>
+        <v>26424</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38300</v>
+        <v>38939</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34811</v>
+        <v>34037</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44303</v>
+        <v>43894</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6762</v>
+        <v>7068</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20278</v>
+        <v>20116</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28652</v>
+        <v>28044</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>48992</v>
+        <v>50316</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>29811</v>
+        <v>30192</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>50373</v>
+        <v>52244</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56120</v>
+        <v>55061</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>85426</v>
+        <v>87555</v>
       </c>
     </row>
     <row r="20">
@@ -2715,40 +2715,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3401</v>
+        <v>2831</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3096</v>
+        <v>3046</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10406</v>
+        <v>10107</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17399</v>
+        <v>16615</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5670</v>
+        <v>5649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3397</v>
+        <v>3537</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12064</v>
+        <v>11674</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5381</v>
+        <v>5152</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11281</v>
+        <v>11582</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>17173</v>
+        <v>17448</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>33152</v>
+        <v>32775</v>
       </c>
     </row>
     <row r="23">
@@ -2759,40 +2759,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13178</v>
+        <v>14042</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14883</v>
+        <v>15172</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27715</v>
+        <v>26710</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>37183</v>
+        <v>37787</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7914</v>
+        <v>7938</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>20303</v>
+        <v>20128</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>16582</v>
+        <v>16850</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25222</v>
+        <v>25343</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>18423</v>
+        <v>17218</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>28893</v>
+        <v>29093</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>38760</v>
+        <v>39557</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>56595</v>
+        <v>56500</v>
       </c>
     </row>
     <row r="24">
@@ -2898,33 +2898,33 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1838</v>
+        <v>1912</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6502</v>
+        <v>6364</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>2261</v>
+        <v>2216</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2768</v>
+        <v>2017</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1874</v>
+        <v>1903</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>10335</v>
+        <v>10142</v>
       </c>
     </row>
     <row r="27">
@@ -2935,36 +2935,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3886</v>
+        <v>4327</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7419</v>
+        <v>7741</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10625</v>
+        <v>10151</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17587</v>
+        <v>17167</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>10326</v>
+        <v>11508</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>8949</v>
+        <v>8748</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5464</v>
+        <v>4251</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>14115</v>
+        <v>14766</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10638</v>
+        <v>11669</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>23226</v>
+        <v>23073</v>
       </c>
     </row>
     <row r="28">
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3880</v>
+        <v>3945</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>993</v>
+        <v>1029</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>5691</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="31">
@@ -3107,36 +3107,36 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5780</v>
+        <v>5698</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>8010</v>
+        <v>6866</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>14074</v>
+        <v>13604</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>7237</v>
+        <v>8073</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>8894</v>
+        <v>10680</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>6155</v>
+        <v>6639</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5646</v>
+        <v>6382</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>8441</v>
+        <v>6390</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>12495</v>
+        <v>12776</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>17052</v>
+        <v>16705</v>
       </c>
     </row>
     <row r="32">
@@ -3239,40 +3239,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>153836</v>
+        <v>153673</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>185397</v>
+        <v>186567</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>225082</v>
+        <v>227557</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>248112</v>
+        <v>250248</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>118695</v>
+        <v>120623</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>175717</v>
+        <v>175782</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>199663</v>
+        <v>197027</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>227579</v>
+        <v>230137</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>285580</v>
+        <v>283262</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>376771</v>
+        <v>374176</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>440118</v>
+        <v>440080</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>499634</v>
+        <v>497276</v>
       </c>
     </row>
     <row r="35">
@@ -3283,40 +3283,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>203060</v>
+        <v>205331</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>241078</v>
+        <v>242911</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>286459</v>
+        <v>288915</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>324846</v>
+        <v>325807</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>165144</v>
+        <v>168712</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>230095</v>
+        <v>232381</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>252453</v>
+        <v>252608</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>288035</v>
+        <v>289501</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>351090</v>
+        <v>354979</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>452600</v>
+        <v>454726</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>523910</v>
+        <v>525094</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>599208</v>
+        <v>591771</v>
       </c>
     </row>
     <row r="36">
